--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="95">
   <si>
     <t>book_title_0</t>
   </si>
@@ -255,6 +255,48 @@
   </si>
   <si>
     <t>AddToCard_Quantity2</t>
+  </si>
+  <si>
+    <t>register_email</t>
+  </si>
+  <si>
+    <t>huong3@gmail.com</t>
+  </si>
+  <si>
+    <t>register_name</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thanh Huong</t>
+  </si>
+  <si>
+    <t>register_address</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>register_phone</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>register_password</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>AddCategory_name1</t>
+  </si>
+  <si>
+    <t>Category1</t>
+  </si>
+  <si>
+    <t>AddCategory_desc1</t>
+  </si>
+  <si>
+    <t>This is a category1</t>
   </si>
 </sst>
 </file>
@@ -299,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C61"/>
+  <dimension ref="A2:C68"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -785,6 +827,62 @@
         <v>3</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="103">
   <si>
     <t>book_title_0</t>
   </si>
@@ -297,6 +297,30 @@
   </si>
   <si>
     <t>This is a category1</t>
+  </si>
+  <si>
+    <t>This is Category1</t>
+  </si>
+  <si>
+    <t>Category_1</t>
+  </si>
+  <si>
+    <t>Category_2</t>
+  </si>
+  <si>
+    <t>Fiction</t>
+  </si>
+  <si>
+    <t>Category_Update_name</t>
+  </si>
+  <si>
+    <t>abcaa_Updated</t>
+  </si>
+  <si>
+    <t>Category_Update_desc</t>
+  </si>
+  <si>
+    <t>a (Updated)</t>
   </si>
 </sst>
 </file>
@@ -341,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C68"/>
+  <dimension ref="A2:C72"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -880,7 +904,39 @@
         <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="118">
   <si>
     <t>book_title_0</t>
   </si>
@@ -321,6 +321,51 @@
   </si>
   <si>
     <t>a (Updated)</t>
+  </si>
+  <si>
+    <t>User_Email_1</t>
+  </si>
+  <si>
+    <t>User_Email_2</t>
+  </si>
+  <si>
+    <t>huong2@gmail.com</t>
+  </si>
+  <si>
+    <t>User_Email_3</t>
+  </si>
+  <si>
+    <t>huong26@gmail.com</t>
+  </si>
+  <si>
+    <t>User_Name_1</t>
+  </si>
+  <si>
+    <t>User_Name_2</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thannh Huong</t>
+  </si>
+  <si>
+    <t>User_Name_3</t>
+  </si>
+  <si>
+    <t>User_Phone_1</t>
+  </si>
+  <si>
+    <t>User_Phone_2</t>
+  </si>
+  <si>
+    <t>User_Phone_3</t>
+  </si>
+  <si>
+    <t>User_Address_1</t>
+  </si>
+  <si>
+    <t>User_Address_2</t>
+  </si>
+  <si>
+    <t>User_Address_3</t>
   </si>
 </sst>
 </file>
@@ -365,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C72"/>
+  <dimension ref="A2:C84"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -939,6 +984,102 @@
         <v>102</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>111</v>
+      </c>
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>112</v>
+      </c>
+      <c r="B79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>113</v>
+      </c>
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="297">
   <si>
     <t>book_title_0</t>
   </si>
@@ -366,6 +366,543 @@
   </si>
   <si>
     <t>User_Address_3</t>
+  </si>
+  <si>
+    <t>huong3_1@gmail.com</t>
+  </si>
+  <si>
+    <t>FirstUserEmailBefore</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng</t>
+  </si>
+  <si>
+    <t>Người nhận</t>
+  </si>
+  <si>
+    <t>Nguyen Duy Linh</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>1688124368</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>linh@gmail.com</t>
+  </si>
+  <si>
+    <t>Ngày tạo</t>
+  </si>
+  <si>
+    <t>2024-07-20 05:36:48</t>
+  </si>
+  <si>
+    <t>Tổng giá</t>
+  </si>
+  <si>
+    <t>1.050.000 VND</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>DELIVERING</t>
+  </si>
+  <si>
+    <t>Phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>VNPAY</t>
+  </si>
+  <si>
+    <t>Địa chỉ giao hàng</t>
+  </si>
+  <si>
+    <t>ProductID_1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>ProductName_1</t>
+  </si>
+  <si>
+    <t>Author_1</t>
+  </si>
+  <si>
+    <t>Publisher_1</t>
+  </si>
+  <si>
+    <t>PublishDate_1</t>
+  </si>
+  <si>
+    <t>Price_1</t>
+  </si>
+  <si>
+    <t>DiscountPrice_1</t>
+  </si>
+  <si>
+    <t>Quantity_1</t>
+  </si>
+  <si>
+    <t>TotalPrice_1</t>
+  </si>
+  <si>
+    <t>600.000 VND</t>
+  </si>
+  <si>
+    <t>ProductID_2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ProductName_2</t>
+  </si>
+  <si>
+    <t>Become a Dark Lord</t>
+  </si>
+  <si>
+    <t>Author_2</t>
+  </si>
+  <si>
+    <t>Django Wexler</t>
+  </si>
+  <si>
+    <t>Publisher_2</t>
+  </si>
+  <si>
+    <t>PublishDate_2</t>
+  </si>
+  <si>
+    <t>Price_2</t>
+  </si>
+  <si>
+    <t>450.000 VND</t>
+  </si>
+  <si>
+    <t>DiscountPrice_2</t>
+  </si>
+  <si>
+    <t>Quantity_2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>TotalPrice_2</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng_1</t>
+  </si>
+  <si>
+    <t>Người nhận_1</t>
+  </si>
+  <si>
+    <t>Số điện thoại_1</t>
+  </si>
+  <si>
+    <t>Email_1</t>
+  </si>
+  <si>
+    <t>Ngày tạo_1</t>
+  </si>
+  <si>
+    <t>Tổng giá_1</t>
+  </si>
+  <si>
+    <t>Trạng thái_1</t>
+  </si>
+  <si>
+    <t>Phương thức thanh toán_1</t>
+  </si>
+  <si>
+    <t>Địa chỉ giao hàng_1</t>
+  </si>
+  <si>
+    <t>Order1_Product1_ProductID</t>
+  </si>
+  <si>
+    <t>Order1_Product1_ProductName</t>
+  </si>
+  <si>
+    <t>Order1_Product1_Author</t>
+  </si>
+  <si>
+    <t>Order1_Product1_Publisher</t>
+  </si>
+  <si>
+    <t>Order1_Product1_PublishDate</t>
+  </si>
+  <si>
+    <t>Order1_Product1_Category</t>
+  </si>
+  <si>
+    <t>Order1_Product1_Price</t>
+  </si>
+  <si>
+    <t>Order1_Product1_DiscountPrice</t>
+  </si>
+  <si>
+    <t>Order1_Product1_Quantity</t>
+  </si>
+  <si>
+    <t>Order1_Product1_TotalPrice</t>
+  </si>
+  <si>
+    <t>Order1_Product2_ProductID</t>
+  </si>
+  <si>
+    <t>Order1_Product2_ProductName</t>
+  </si>
+  <si>
+    <t>Order1_Product2_Author</t>
+  </si>
+  <si>
+    <t>Order1_Product2_Publisher</t>
+  </si>
+  <si>
+    <t>Order1_Product2_PublishDate</t>
+  </si>
+  <si>
+    <t>Order1_Product2_Category</t>
+  </si>
+  <si>
+    <t>Order1_Product2_Price</t>
+  </si>
+  <si>
+    <t>Order1_Product2_DiscountPrice</t>
+  </si>
+  <si>
+    <t>Order1_Product2_Quantity</t>
+  </si>
+  <si>
+    <t>Order1_Product2_TotalPrice</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng_2</t>
+  </si>
+  <si>
+    <t>Người nhận_2</t>
+  </si>
+  <si>
+    <t>Số điện thoại_2</t>
+  </si>
+  <si>
+    <t>Email_2</t>
+  </si>
+  <si>
+    <t>Ngày tạo_2</t>
+  </si>
+  <si>
+    <t>2024-07-15 01:39:15</t>
+  </si>
+  <si>
+    <t>Tổng giá_2</t>
+  </si>
+  <si>
+    <t>900.000 VND</t>
+  </si>
+  <si>
+    <t>Trạng thái_2</t>
+  </si>
+  <si>
+    <t>PROCESSING</t>
+  </si>
+  <si>
+    <t>Phương thức thanh toán_2</t>
+  </si>
+  <si>
+    <t>Địa chỉ giao hàng_2</t>
+  </si>
+  <si>
+    <t>HN</t>
+  </si>
+  <si>
+    <t>Order2_Product1_ProductID</t>
+  </si>
+  <si>
+    <t>Order2_Product1_ProductName</t>
+  </si>
+  <si>
+    <t>Order2_Product1_Author</t>
+  </si>
+  <si>
+    <t>Order2_Product1_Publisher</t>
+  </si>
+  <si>
+    <t>Order2_Product1_PublishDate</t>
+  </si>
+  <si>
+    <t>Order2_Product1_Category</t>
+  </si>
+  <si>
+    <t>Order2_Product1_Price</t>
+  </si>
+  <si>
+    <t>Order2_Product1_DiscountPrice</t>
+  </si>
+  <si>
+    <t>Order2_Product1_Quantity</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Order2_Product1_TotalPrice</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng_3</t>
+  </si>
+  <si>
+    <t>Người nhận_3</t>
+  </si>
+  <si>
+    <t>Số điện thoại_3</t>
+  </si>
+  <si>
+    <t>Email_3</t>
+  </si>
+  <si>
+    <t>Ngày tạo_3</t>
+  </si>
+  <si>
+    <t>2024-07-15 01:33:40</t>
+  </si>
+  <si>
+    <t>Tổng giá_3</t>
+  </si>
+  <si>
+    <t>Trạng thái_3</t>
+  </si>
+  <si>
+    <t>PENDING</t>
+  </si>
+  <si>
+    <t>Phương thức thanh toán_3</t>
+  </si>
+  <si>
+    <t>Địa chỉ giao hàng_3</t>
+  </si>
+  <si>
+    <t>adsadada</t>
+  </si>
+  <si>
+    <t>Order3_Product1_ProductID</t>
+  </si>
+  <si>
+    <t>Order3_Product1_ProductName</t>
+  </si>
+  <si>
+    <t>Order3_Product1_Author</t>
+  </si>
+  <si>
+    <t>Order3_Product1_Publisher</t>
+  </si>
+  <si>
+    <t>Order3_Product1_PublishDate</t>
+  </si>
+  <si>
+    <t>Order3_Product1_Category</t>
+  </si>
+  <si>
+    <t>Order3_Product1_Price</t>
+  </si>
+  <si>
+    <t>Order3_Product1_DiscountPrice</t>
+  </si>
+  <si>
+    <t>Order3_Product1_Quantity</t>
+  </si>
+  <si>
+    <t>Order3_Product1_TotalPrice</t>
+  </si>
+  <si>
+    <t>Mã đơn hàng_4</t>
+  </si>
+  <si>
+    <t>Người nhận_4</t>
+  </si>
+  <si>
+    <t>Số điện thoại_4</t>
+  </si>
+  <si>
+    <t>Email_4</t>
+  </si>
+  <si>
+    <t>Ngày tạo_4</t>
+  </si>
+  <si>
+    <t>2024-07-15 01:29:39</t>
+  </si>
+  <si>
+    <t>Tổng giá_4</t>
+  </si>
+  <si>
+    <t>Trạng thái_4</t>
+  </si>
+  <si>
+    <t>Phương thức thanh toán_4</t>
+  </si>
+  <si>
+    <t>Địa chỉ giao hàng_4</t>
+  </si>
+  <si>
+    <t>Order4_Product1_ProductID</t>
+  </si>
+  <si>
+    <t>Order4_Product1_ProductName</t>
+  </si>
+  <si>
+    <t>Order4_Product1_Author</t>
+  </si>
+  <si>
+    <t>Order4_Product1_Publisher</t>
+  </si>
+  <si>
+    <t>Order4_Product1_PublishDate</t>
+  </si>
+  <si>
+    <t>Order4_Product1_Category</t>
+  </si>
+  <si>
+    <t>Order4_Product1_Price</t>
+  </si>
+  <si>
+    <t>Order4_Product1_DiscountPrice</t>
+  </si>
+  <si>
+    <t>Order4_Product1_Quantity</t>
+  </si>
+  <si>
+    <t>Order4_Product1_TotalPrice</t>
+  </si>
+  <si>
+    <t>OrderID1</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>OrderCode1</t>
+  </si>
+  <si>
+    <t>Receiver1</t>
+  </si>
+  <si>
+    <t>Phone1</t>
+  </si>
+  <si>
+    <t>Email1</t>
+  </si>
+  <si>
+    <t>CreateDate1</t>
+  </si>
+  <si>
+    <t>TotalPrice1</t>
+  </si>
+  <si>
+    <t>Status1</t>
+  </si>
+  <si>
+    <t>PaymentMethod1</t>
+  </si>
+  <si>
+    <t>OrderID2</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>OrderCode2</t>
+  </si>
+  <si>
+    <t>Receiver2</t>
+  </si>
+  <si>
+    <t>Phone2</t>
+  </si>
+  <si>
+    <t>Email2</t>
+  </si>
+  <si>
+    <t>CreateDate2</t>
+  </si>
+  <si>
+    <t>TotalPrice2</t>
+  </si>
+  <si>
+    <t>Status2</t>
+  </si>
+  <si>
+    <t>PaymentMethod2</t>
+  </si>
+  <si>
+    <t>OrderID3</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>OrderCode3</t>
+  </si>
+  <si>
+    <t>Receiver3</t>
+  </si>
+  <si>
+    <t>Phone3</t>
+  </si>
+  <si>
+    <t>Email3</t>
+  </si>
+  <si>
+    <t>CreateDate3</t>
+  </si>
+  <si>
+    <t>TotalPrice3</t>
+  </si>
+  <si>
+    <t>Status3</t>
+  </si>
+  <si>
+    <t>PaymentMethod3</t>
+  </si>
+  <si>
+    <t>OrderID4</t>
+  </si>
+  <si>
+    <t>OrderCode4</t>
+  </si>
+  <si>
+    <t>Receiver4</t>
+  </si>
+  <si>
+    <t>Phone4</t>
+  </si>
+  <si>
+    <t>Email4</t>
+  </si>
+  <si>
+    <t>CreateDate4</t>
+  </si>
+  <si>
+    <t>TotalPrice4</t>
+  </si>
+  <si>
+    <t>Status4</t>
+  </si>
+  <si>
+    <t>PaymentMethod4</t>
+  </si>
+  <si>
+    <t>2024-07-14 09:32:19</t>
+  </si>
+  <si>
+    <t>1.800.000 VND</t>
   </si>
 </sst>
 </file>
@@ -410,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C84"/>
+  <dimension ref="A2:C234"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -901,7 +1438,7 @@
         <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63">
@@ -965,7 +1502,7 @@
         <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71">
@@ -1078,6 +1615,1206 @@
       </c>
       <c r="B84" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>131</v>
+      </c>
+      <c r="B92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>135</v>
+      </c>
+      <c r="B94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>136</v>
+      </c>
+      <c r="B95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>138</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>139</v>
+      </c>
+      <c r="B97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>140</v>
+      </c>
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>141</v>
+      </c>
+      <c r="B99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>142</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>144</v>
+      </c>
+      <c r="B102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>147</v>
+      </c>
+      <c r="B104" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>149</v>
+      </c>
+      <c r="B105" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>157</v>
+      </c>
+      <c r="B110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>158</v>
+      </c>
+      <c r="B111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>160</v>
+      </c>
+      <c r="B112" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>161</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>164</v>
+      </c>
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>165</v>
+      </c>
+      <c r="B117" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>166</v>
+      </c>
+      <c r="B118" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>167</v>
+      </c>
+      <c r="B119" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>168</v>
+      </c>
+      <c r="B120" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>169</v>
+      </c>
+      <c r="B121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>170</v>
+      </c>
+      <c r="B122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>171</v>
+      </c>
+      <c r="B123" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>172</v>
+      </c>
+      <c r="B124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>173</v>
+      </c>
+      <c r="B125" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>174</v>
+      </c>
+      <c r="B126" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>176</v>
+      </c>
+      <c r="B128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>177</v>
+      </c>
+      <c r="B129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>178</v>
+      </c>
+      <c r="B130" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>179</v>
+      </c>
+      <c r="B131" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>180</v>
+      </c>
+      <c r="B132" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>181</v>
+      </c>
+      <c r="B133" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>182</v>
+      </c>
+      <c r="B134" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>183</v>
+      </c>
+      <c r="B135" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>184</v>
+      </c>
+      <c r="B136" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>185</v>
+      </c>
+      <c r="B137" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>186</v>
+      </c>
+      <c r="B138" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>187</v>
+      </c>
+      <c r="B139" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>188</v>
+      </c>
+      <c r="B140" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>189</v>
+      </c>
+      <c r="B141" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>190</v>
+      </c>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>191</v>
+      </c>
+      <c r="B143" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>192</v>
+      </c>
+      <c r="B144" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>193</v>
+      </c>
+      <c r="B145" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>196</v>
+      </c>
+      <c r="B147" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>198</v>
+      </c>
+      <c r="B148" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>200</v>
+      </c>
+      <c r="B149" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>201</v>
+      </c>
+      <c r="B150" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>203</v>
+      </c>
+      <c r="B151" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>204</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>205</v>
+      </c>
+      <c r="B153" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>206</v>
+      </c>
+      <c r="B154" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>207</v>
+      </c>
+      <c r="B155" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>208</v>
+      </c>
+      <c r="B156" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>209</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>210</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>211</v>
+      </c>
+      <c r="B159" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>213</v>
+      </c>
+      <c r="B160" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>214</v>
+      </c>
+      <c r="B161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>215</v>
+      </c>
+      <c r="B162" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>216</v>
+      </c>
+      <c r="B163" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>217</v>
+      </c>
+      <c r="B164" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>218</v>
+      </c>
+      <c r="B165" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>220</v>
+      </c>
+      <c r="B166" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>221</v>
+      </c>
+      <c r="B167" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>223</v>
+      </c>
+      <c r="B168" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>224</v>
+      </c>
+      <c r="B169" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>226</v>
+      </c>
+      <c r="B170" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>227</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>228</v>
+      </c>
+      <c r="B172" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>229</v>
+      </c>
+      <c r="B173" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>230</v>
+      </c>
+      <c r="B174" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>231</v>
+      </c>
+      <c r="B175" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>232</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>233</v>
+      </c>
+      <c r="B177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>234</v>
+      </c>
+      <c r="B178" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>235</v>
+      </c>
+      <c r="B179" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>236</v>
+      </c>
+      <c r="B180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>237</v>
+      </c>
+      <c r="B181" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>238</v>
+      </c>
+      <c r="B182" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>239</v>
+      </c>
+      <c r="B183" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>240</v>
+      </c>
+      <c r="B184" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>242</v>
+      </c>
+      <c r="B185" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>243</v>
+      </c>
+      <c r="B186" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>244</v>
+      </c>
+      <c r="B187" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>245</v>
+      </c>
+      <c r="B188" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>246</v>
+      </c>
+      <c r="B189" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>247</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>248</v>
+      </c>
+      <c r="B191" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>249</v>
+      </c>
+      <c r="B192" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>250</v>
+      </c>
+      <c r="B193" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>251</v>
+      </c>
+      <c r="B194" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>252</v>
+      </c>
+      <c r="B195" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>253</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>254</v>
+      </c>
+      <c r="B197" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>255</v>
+      </c>
+      <c r="B198" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>256</v>
+      </c>
+      <c r="B199" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>258</v>
+      </c>
+      <c r="B200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>259</v>
+      </c>
+      <c r="B201" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>260</v>
+      </c>
+      <c r="B202" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>261</v>
+      </c>
+      <c r="B203" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>262</v>
+      </c>
+      <c r="B204" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>263</v>
+      </c>
+      <c r="B205" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>264</v>
+      </c>
+      <c r="B206" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>265</v>
+      </c>
+      <c r="B207" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>266</v>
+      </c>
+      <c r="B208" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>268</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>269</v>
+      </c>
+      <c r="B210" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>270</v>
+      </c>
+      <c r="B211" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>271</v>
+      </c>
+      <c r="B212" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>272</v>
+      </c>
+      <c r="B213" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>273</v>
+      </c>
+      <c r="B214" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>274</v>
+      </c>
+      <c r="B215" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>275</v>
+      </c>
+      <c r="B216" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>276</v>
+      </c>
+      <c r="B217" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>278</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>279</v>
+      </c>
+      <c r="B219" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>280</v>
+      </c>
+      <c r="B220" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>281</v>
+      </c>
+      <c r="B221" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>282</v>
+      </c>
+      <c r="B222" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>283</v>
+      </c>
+      <c r="B223" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>284</v>
+      </c>
+      <c r="B224" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>285</v>
+      </c>
+      <c r="B225" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>286</v>
+      </c>
+      <c r="B226" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>287</v>
+      </c>
+      <c r="B227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>288</v>
+      </c>
+      <c r="B228" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>289</v>
+      </c>
+      <c r="B229" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>290</v>
+      </c>
+      <c r="B230" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>291</v>
+      </c>
+      <c r="B231" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>292</v>
+      </c>
+      <c r="B232" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>293</v>
+      </c>
+      <c r="B233" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>294</v>
+      </c>
+      <c r="B234" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="297">
   <si>
     <t>book_title_0</t>
   </si>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -974,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">

--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="332">
   <si>
     <t>book_title_0</t>
   </si>
@@ -903,6 +903,111 @@
   </si>
   <si>
     <t>1.800.000 VND</t>
+  </si>
+  <si>
+    <t>BookID1</t>
+  </si>
+  <si>
+    <t>BookName1</t>
+  </si>
+  <si>
+    <t>The Ministry of Time</t>
+  </si>
+  <si>
+    <t>Author1</t>
+  </si>
+  <si>
+    <t>Kaliane Bradley</t>
+  </si>
+  <si>
+    <t>Publisher1</t>
+  </si>
+  <si>
+    <t>PubDate1</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
+  <si>
+    <t>Price1</t>
+  </si>
+  <si>
+    <t>100.000 VND</t>
+  </si>
+  <si>
+    <t>SalePrice1</t>
+  </si>
+  <si>
+    <t>Quantity1</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Pages1</t>
+  </si>
+  <si>
+    <t>BookID2</t>
+  </si>
+  <si>
+    <t>BookName2</t>
+  </si>
+  <si>
+    <t>Author2</t>
+  </si>
+  <si>
+    <t>Publisher2</t>
+  </si>
+  <si>
+    <t>PubDate2</t>
+  </si>
+  <si>
+    <t>Price2</t>
+  </si>
+  <si>
+    <t>SalePrice2</t>
+  </si>
+  <si>
+    <t>Quantity2</t>
+  </si>
+  <si>
+    <t>Pages2</t>
+  </si>
+  <si>
+    <t>BookID3</t>
+  </si>
+  <si>
+    <t>BookName3</t>
+  </si>
+  <si>
+    <t>Escape Velocity</t>
+  </si>
+  <si>
+    <t>Author3</t>
+  </si>
+  <si>
+    <t>Victor Manibo</t>
+  </si>
+  <si>
+    <t>Publisher3</t>
+  </si>
+  <si>
+    <t>PubDate3</t>
+  </si>
+  <si>
+    <t>Price3</t>
+  </si>
+  <si>
+    <t>250.000 VND</t>
+  </si>
+  <si>
+    <t>SalePrice3</t>
+  </si>
+  <si>
+    <t>Quantity3</t>
+  </si>
+  <si>
+    <t>Pages3</t>
   </si>
 </sst>
 </file>
@@ -947,7 +1052,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C234"/>
+  <dimension ref="A2:C261"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -2817,6 +2922,222 @@
         <v>134</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>297</v>
+      </c>
+      <c r="B235" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>298</v>
+      </c>
+      <c r="B236" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>300</v>
+      </c>
+      <c r="B237" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>302</v>
+      </c>
+      <c r="B238" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>303</v>
+      </c>
+      <c r="B239" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>305</v>
+      </c>
+      <c r="B240" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>307</v>
+      </c>
+      <c r="B241" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>308</v>
+      </c>
+      <c r="B242" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>310</v>
+      </c>
+      <c r="B243" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>311</v>
+      </c>
+      <c r="B244" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>312</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>313</v>
+      </c>
+      <c r="B246" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>314</v>
+      </c>
+      <c r="B247" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>315</v>
+      </c>
+      <c r="B248" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>316</v>
+      </c>
+      <c r="B249" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>317</v>
+      </c>
+      <c r="B250" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>318</v>
+      </c>
+      <c r="B251" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>319</v>
+      </c>
+      <c r="B252" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>320</v>
+      </c>
+      <c r="B253" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>321</v>
+      </c>
+      <c r="B254" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>323</v>
+      </c>
+      <c r="B255" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>325</v>
+      </c>
+      <c r="B256" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>326</v>
+      </c>
+      <c r="B257" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>327</v>
+      </c>
+      <c r="B258" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>329</v>
+      </c>
+      <c r="B259" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>330</v>
+      </c>
+      <c r="B260" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>331</v>
+      </c>
+      <c r="B261" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="348">
   <si>
     <t>book_title_0</t>
   </si>
@@ -1008,6 +1008,54 @@
   </si>
   <si>
     <t>Pages3</t>
+  </si>
+  <si>
+    <t>BookNameUpdate1</t>
+  </si>
+  <si>
+    <t>The Ministry of Time (Updated)</t>
+  </si>
+  <si>
+    <t>AuthorUpdate1</t>
+  </si>
+  <si>
+    <t>Kaliene Bradley</t>
+  </si>
+  <si>
+    <t>PublisherUpdate1</t>
+  </si>
+  <si>
+    <t>PubDateUpdate1</t>
+  </si>
+  <si>
+    <t>08/06/2025</t>
+  </si>
+  <si>
+    <t>PriceUpdate1</t>
+  </si>
+  <si>
+    <t>120.000 VND</t>
+  </si>
+  <si>
+    <t>SalePriceUpdate1</t>
+  </si>
+  <si>
+    <t>115.000 VND</t>
+  </si>
+  <si>
+    <t>QuantityUpdate1</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>PagesUpdate1</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>-120.000 VND</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C261"/>
+  <dimension ref="A2:C269"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -3138,6 +3186,70 @@
         <v>33</v>
       </c>
     </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>332</v>
+      </c>
+      <c r="B262" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>334</v>
+      </c>
+      <c r="B263" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>336</v>
+      </c>
+      <c r="B264" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>337</v>
+      </c>
+      <c r="B265" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>339</v>
+      </c>
+      <c r="B266" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>341</v>
+      </c>
+      <c r="B267" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>343</v>
+      </c>
+      <c r="B268" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>345</v>
+      </c>
+      <c r="B269" t="s">
+        <v>346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="348">
   <si>
     <t>book_title_0</t>
   </si>

--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="418">
   <si>
     <t>book_title_0</t>
   </si>
@@ -1056,6 +1056,216 @@
   </si>
   <si>
     <t>-120.000 VND</t>
+  </si>
+  <si>
+    <t>Order_Code</t>
+  </si>
+  <si>
+    <t>#BOOK-23NMG93T30</t>
+  </si>
+  <si>
+    <t>Order_Date</t>
+  </si>
+  <si>
+    <t>21:52 - 08/06/2025</t>
+  </si>
+  <si>
+    <t>Order_Total</t>
+  </si>
+  <si>
+    <t>Order_Payment</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Order_Status</t>
+  </si>
+  <si>
+    <t>OrderVNPay_Code</t>
+  </si>
+  <si>
+    <t>#BOOK-A558ECPHMW</t>
+  </si>
+  <si>
+    <t>OrderVNPay_Date</t>
+  </si>
+  <si>
+    <t>22:12 - 08/06/2025</t>
+  </si>
+  <si>
+    <t>OrderVNPay_Total</t>
+  </si>
+  <si>
+    <t>OrderVNPay_Payment</t>
+  </si>
+  <si>
+    <t>OrderVNPay_Status</t>
+  </si>
+  <si>
+    <t>#BOOK-ORXNJT0YPJ</t>
+  </si>
+  <si>
+    <t>22:31 - 08/06/2025</t>
+  </si>
+  <si>
+    <t>#BOOK-4EPFCQK95G</t>
+  </si>
+  <si>
+    <t>22:35 - 08/06/2025</t>
+  </si>
+  <si>
+    <t>#BOOK-NQ6L5SCI2T</t>
+  </si>
+  <si>
+    <t>22:38 - 08/06/2025</t>
+  </si>
+  <si>
+    <t>#BOOK-X3565WUY17</t>
+  </si>
+  <si>
+    <t>22:44 - 08/06/2025</t>
+  </si>
+  <si>
+    <t>ContactID1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ContactName1</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ContactEmail1</t>
+  </si>
+  <si>
+    <t>a@gmail.com</t>
+  </si>
+  <si>
+    <t>ContactSubject1</t>
+  </si>
+  <si>
+    <t>ContactMessage1</t>
+  </si>
+  <si>
+    <t>ContactCreatedAt1</t>
+  </si>
+  <si>
+    <t>2025-05-26 17:19:39</t>
+  </si>
+  <si>
+    <t>ContactID2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>ContactName2</t>
+  </si>
+  <si>
+    <t>thì làm sao</t>
+  </si>
+  <si>
+    <t>ContactEmail2</t>
+  </si>
+  <si>
+    <t>shrimp26122003@gmail.com</t>
+  </si>
+  <si>
+    <t>ContactSubject2</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ContactMessage2</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>ContactCreatedAt2</t>
+  </si>
+  <si>
+    <t>2025-05-13 15:19:50</t>
+  </si>
+  <si>
+    <t>ContactID3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ContactName3</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Linh</t>
+  </si>
+  <si>
+    <t>ContactEmail3</t>
+  </si>
+  <si>
+    <t>nguyenduylinh2201@gmail.com</t>
+  </si>
+  <si>
+    <t>ContactSubject3</t>
+  </si>
+  <si>
+    <t>Bao cao san pham</t>
+  </si>
+  <si>
+    <t>ContactMessage3</t>
+  </si>
+  <si>
+    <t>San pham cua toi bi loi</t>
+  </si>
+  <si>
+    <t>ContactCreatedAt3</t>
+  </si>
+  <si>
+    <t>2024-07-20 05:40:35</t>
+  </si>
+  <si>
+    <t>ContactID4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>ContactName4</t>
+  </si>
+  <si>
+    <t>ContactEmail4</t>
+  </si>
+  <si>
+    <t>ContactSubject4</t>
+  </si>
+  <si>
+    <t>review sản phẩm</t>
+  </si>
+  <si>
+    <t>ContactMessage4</t>
+  </si>
+  <si>
+    <t>sản phẩm tốt</t>
+  </si>
+  <si>
+    <t>ContactCreatedAt4</t>
+  </si>
+  <si>
+    <t>2024-07-14 09:17:24</t>
+  </si>
+  <si>
+    <t>The Ministry of Time (Negative Price)</t>
+  </si>
+  <si>
+    <t>-100.000 VND</t>
+  </si>
+  <si>
+    <t>149</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C269"/>
+  <dimension ref="A2:C303"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1777,7 @@
         <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60">
@@ -1575,7 +1785,7 @@
         <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
@@ -2983,7 +3193,7 @@
         <v>298</v>
       </c>
       <c r="B236" t="s">
-        <v>299</v>
+        <v>415</v>
       </c>
     </row>
     <row r="237">
@@ -2991,7 +3201,7 @@
         <v>300</v>
       </c>
       <c r="B237" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
     </row>
     <row r="238">
@@ -3007,7 +3217,7 @@
         <v>303</v>
       </c>
       <c r="B239" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
     </row>
     <row r="240">
@@ -3015,7 +3225,7 @@
         <v>305</v>
       </c>
       <c r="B240" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
     </row>
     <row r="241">
@@ -3023,7 +3233,7 @@
         <v>307</v>
       </c>
       <c r="B241" t="s">
-        <v>306</v>
+        <v>416</v>
       </c>
     </row>
     <row r="242">
@@ -3031,7 +3241,7 @@
         <v>308</v>
       </c>
       <c r="B242" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
     </row>
     <row r="243">
@@ -3039,7 +3249,7 @@
         <v>310</v>
       </c>
       <c r="B243" t="s">
-        <v>33</v>
+        <v>346</v>
       </c>
     </row>
     <row r="244">
@@ -3111,7 +3321,7 @@
         <v>319</v>
       </c>
       <c r="B252" t="s">
-        <v>33</v>
+        <v>417</v>
       </c>
     </row>
     <row r="253">
@@ -3248,6 +3458,278 @@
       </c>
       <c r="B269" t="s">
         <v>346</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>348</v>
+      </c>
+      <c r="B270" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>350</v>
+      </c>
+      <c r="B271" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>352</v>
+      </c>
+      <c r="B272" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>353</v>
+      </c>
+      <c r="B273" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>355</v>
+      </c>
+      <c r="B274" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>356</v>
+      </c>
+      <c r="B275" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>358</v>
+      </c>
+      <c r="B276" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>360</v>
+      </c>
+      <c r="B277" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>361</v>
+      </c>
+      <c r="B278" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>362</v>
+      </c>
+      <c r="B279" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>371</v>
+      </c>
+      <c r="B280" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>373</v>
+      </c>
+      <c r="B281" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>375</v>
+      </c>
+      <c r="B282" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>377</v>
+      </c>
+      <c r="B283" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>378</v>
+      </c>
+      <c r="B284" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>379</v>
+      </c>
+      <c r="B285" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>381</v>
+      </c>
+      <c r="B286" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>383</v>
+      </c>
+      <c r="B287" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>385</v>
+      </c>
+      <c r="B288" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>387</v>
+      </c>
+      <c r="B289" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>389</v>
+      </c>
+      <c r="B290" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>391</v>
+      </c>
+      <c r="B291" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>393</v>
+      </c>
+      <c r="B292" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>395</v>
+      </c>
+      <c r="B293" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>397</v>
+      </c>
+      <c r="B294" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>399</v>
+      </c>
+      <c r="B295" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>401</v>
+      </c>
+      <c r="B296" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>403</v>
+      </c>
+      <c r="B297" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>405</v>
+      </c>
+      <c r="B298" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>407</v>
+      </c>
+      <c r="B299" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>408</v>
+      </c>
+      <c r="B300" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>409</v>
+      </c>
+      <c r="B301" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>411</v>
+      </c>
+      <c r="B302" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>413</v>
+      </c>
+      <c r="B303" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="471">
   <si>
     <t>book_title_0</t>
   </si>
@@ -1266,6 +1266,165 @@
   </si>
   <si>
     <t>149</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>BOOK-X3565WUY17</t>
+  </si>
+  <si>
+    <t>2025-06-08 22:44:48</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>BOOK-NQ6L5SCI2T</t>
+  </si>
+  <si>
+    <t>2025-06-08 22:38:12</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>BOOK-4EPFCQK95G</t>
+  </si>
+  <si>
+    <t>2025-06-08 22:35:41</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>BOOK-ORXNJT0YPJ</t>
+  </si>
+  <si>
+    <t>2025-06-08 22:31:48</t>
+  </si>
+  <si>
+    <t>BOOK-L5LI813492</t>
+  </si>
+  <si>
+    <t>Thanh Huong</t>
+  </si>
+  <si>
+    <t>huong22@gmail.com</t>
+  </si>
+  <si>
+    <t>2025-06-08 11:32:56</t>
+  </si>
+  <si>
+    <t>800.000 VND</t>
+  </si>
+  <si>
+    <t>500.000 VND</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Sci-Fi_Updated</t>
+  </si>
+  <si>
+    <t>This is Sci-Fi (Updated)</t>
+  </si>
+  <si>
+    <t>register_email_user</t>
+  </si>
+  <si>
+    <t>huong2_1@gmail.com</t>
+  </si>
+  <si>
+    <t>register_name_user</t>
+  </si>
+  <si>
+    <t>register_address_user</t>
+  </si>
+  <si>
+    <t>register_phone_user</t>
+  </si>
+  <si>
+    <t>register_password_user</t>
+  </si>
+  <si>
+    <t>PostID1</t>
+  </si>
+  <si>
+    <t>PostTitle1</t>
+  </si>
+  <si>
+    <t>PostAuthor1</t>
+  </si>
+  <si>
+    <t>PostDate1</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>PostSummary1</t>
+  </si>
+  <si>
+    <t>Sự kiện ra mắt cuốn sách “Chip War - Cuộc chiến vi mạch”: Vẽ lại bản đồ bán dẫn toàn cầu: Việt Nam ở đâu?</t>
+  </si>
+  <si>
+    <t>PostID2</t>
+  </si>
+  <si>
+    <t>PostTitle2</t>
+  </si>
+  <si>
+    <t>PostAuthor2</t>
+  </si>
+  <si>
+    <t>PostDate2</t>
+  </si>
+  <si>
+    <t>PostSummary2</t>
+  </si>
+  <si>
+    <t>PostID3</t>
+  </si>
+  <si>
+    <t>PostTitle3</t>
+  </si>
+  <si>
+    <t>PostAuthor3</t>
+  </si>
+  <si>
+    <t>PostDate3</t>
+  </si>
+  <si>
+    <t>PostSummary3</t>
+  </si>
+  <si>
+    <t>PostID4</t>
+  </si>
+  <si>
+    <t>PostTitle4</t>
+  </si>
+  <si>
+    <t>PostAuthor4</t>
+  </si>
+  <si>
+    <t>PostDate4</t>
+  </si>
+  <si>
+    <t>PostSummary4</t>
+  </si>
+  <si>
+    <t>AddToWishlist_Tittle1</t>
+  </si>
+  <si>
+    <t>AddToWishlist_Price1</t>
+  </si>
+  <si>
+    <t>AddToWishlist_Tittle2</t>
+  </si>
+  <si>
+    <t>AddToWishlist_Price2</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C303"/>
+  <dimension ref="A2:C332"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1504,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1353,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1361,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1649,7 +1808,7 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -1657,7 +1816,7 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -1665,7 +1824,7 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -1673,7 +1832,7 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -1689,7 +1848,7 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49">
@@ -1697,7 +1856,7 @@
         <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -1865,7 +2024,7 @@
         <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71">
@@ -1873,7 +2032,7 @@
         <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72">
@@ -1881,7 +2040,7 @@
         <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>438</v>
       </c>
     </row>
     <row r="73">
@@ -1889,7 +2048,7 @@
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74">
@@ -1897,7 +2056,7 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75">
@@ -1905,7 +2064,7 @@
         <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
@@ -1921,7 +2080,7 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78">
@@ -1929,7 +2088,7 @@
         <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
@@ -1945,7 +2104,7 @@
         <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
@@ -1953,7 +2112,7 @@
         <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82">
@@ -1969,7 +2128,7 @@
         <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
@@ -1977,7 +2136,7 @@
         <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
@@ -1985,7 +2144,7 @@
         <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86">
@@ -2209,7 +2368,7 @@
         <v>161</v>
       </c>
       <c r="B113" t="s">
-        <v>3</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114">
@@ -2217,7 +2376,7 @@
         <v>162</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>431</v>
       </c>
     </row>
     <row r="115">
@@ -2233,7 +2392,7 @@
         <v>164</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>432</v>
       </c>
     </row>
     <row r="117">
@@ -2241,7 +2400,7 @@
         <v>165</v>
       </c>
       <c r="B117" t="s">
-        <v>295</v>
+        <v>433</v>
       </c>
     </row>
     <row r="118">
@@ -2249,7 +2408,7 @@
         <v>166</v>
       </c>
       <c r="B118" t="s">
-        <v>296</v>
+        <v>434</v>
       </c>
     </row>
     <row r="119">
@@ -2273,7 +2432,7 @@
         <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>86</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122">
@@ -2281,7 +2440,7 @@
         <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123">
@@ -2289,7 +2448,7 @@
         <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>150</v>
+        <v>322</v>
       </c>
     </row>
     <row r="124">
@@ -2297,7 +2456,7 @@
         <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>152</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125">
@@ -2313,7 +2472,7 @@
         <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>295</v>
+        <v>433</v>
       </c>
     </row>
     <row r="127">
@@ -2329,7 +2488,7 @@
         <v>176</v>
       </c>
       <c r="B128" t="s">
-        <v>156</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129">
@@ -2337,7 +2496,7 @@
         <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>156</v>
+        <v>328</v>
       </c>
     </row>
     <row r="130">
@@ -2345,7 +2504,7 @@
         <v>178</v>
       </c>
       <c r="B130" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131">
@@ -2353,7 +2512,7 @@
         <v>179</v>
       </c>
       <c r="B131" t="s">
-        <v>296</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132">
@@ -2441,7 +2600,7 @@
         <v>190</v>
       </c>
       <c r="B142" t="s">
-        <v>3</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143">
@@ -2449,7 +2608,7 @@
         <v>191</v>
       </c>
       <c r="B143" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144">
@@ -2457,7 +2616,7 @@
         <v>192</v>
       </c>
       <c r="B144" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="145">
@@ -2465,7 +2624,7 @@
         <v>193</v>
       </c>
       <c r="B145" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146">
@@ -2473,7 +2632,7 @@
         <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>195</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147">
@@ -2481,7 +2640,7 @@
         <v>196</v>
       </c>
       <c r="B147" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148">
@@ -2497,7 +2656,7 @@
         <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
     </row>
     <row r="150">
@@ -2505,7 +2664,7 @@
         <v>201</v>
       </c>
       <c r="B150" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
     </row>
     <row r="151">
@@ -2513,7 +2672,7 @@
         <v>203</v>
       </c>
       <c r="B151" t="s">
-        <v>137</v>
+        <v>436</v>
       </c>
     </row>
     <row r="152">
@@ -2521,7 +2680,7 @@
         <v>204</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="153">
@@ -2529,7 +2688,7 @@
         <v>205</v>
       </c>
       <c r="B153" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
@@ -2537,7 +2696,7 @@
         <v>206</v>
       </c>
       <c r="B154" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
@@ -2545,7 +2704,7 @@
         <v>207</v>
       </c>
       <c r="B155" t="s">
-        <v>195</v>
+        <v>423</v>
       </c>
     </row>
     <row r="156">
@@ -2561,7 +2720,7 @@
         <v>209</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158">
@@ -2569,7 +2728,7 @@
         <v>210</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159">
@@ -2577,7 +2736,7 @@
         <v>211</v>
       </c>
       <c r="B159" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
     </row>
     <row r="160">
@@ -2585,7 +2744,7 @@
         <v>213</v>
       </c>
       <c r="B160" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161">
@@ -2593,7 +2752,7 @@
         <v>214</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>425</v>
       </c>
     </row>
     <row r="162">
@@ -2601,7 +2760,7 @@
         <v>215</v>
       </c>
       <c r="B162" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163">
@@ -2609,7 +2768,7 @@
         <v>216</v>
       </c>
       <c r="B163" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="164">
@@ -2617,7 +2776,7 @@
         <v>217</v>
       </c>
       <c r="B164" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="165">
@@ -2625,7 +2784,7 @@
         <v>218</v>
       </c>
       <c r="B165" t="s">
-        <v>219</v>
+        <v>426</v>
       </c>
     </row>
     <row r="166">
@@ -2633,7 +2792,7 @@
         <v>220</v>
       </c>
       <c r="B166" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167">
@@ -2649,7 +2808,7 @@
         <v>223</v>
       </c>
       <c r="B168" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
     </row>
     <row r="169">
@@ -2657,7 +2816,7 @@
         <v>224</v>
       </c>
       <c r="B169" t="s">
-        <v>225</v>
+        <v>86</v>
       </c>
     </row>
     <row r="170">
@@ -2665,7 +2824,7 @@
         <v>226</v>
       </c>
       <c r="B170" t="s">
-        <v>137</v>
+        <v>436</v>
       </c>
     </row>
     <row r="171">
@@ -2673,7 +2832,7 @@
         <v>227</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="172">
@@ -2681,7 +2840,7 @@
         <v>228</v>
       </c>
       <c r="B172" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173">
@@ -2689,7 +2848,7 @@
         <v>229</v>
       </c>
       <c r="B173" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174">
@@ -2697,7 +2856,7 @@
         <v>230</v>
       </c>
       <c r="B174" t="s">
-        <v>219</v>
+        <v>426</v>
       </c>
     </row>
     <row r="175">
@@ -2713,7 +2872,7 @@
         <v>232</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177">
@@ -2721,7 +2880,7 @@
         <v>233</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
@@ -2729,7 +2888,7 @@
         <v>234</v>
       </c>
       <c r="B178" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
     </row>
     <row r="179">
@@ -2737,7 +2896,7 @@
         <v>235</v>
       </c>
       <c r="B179" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180">
@@ -2745,7 +2904,7 @@
         <v>236</v>
       </c>
       <c r="B180" t="s">
-        <v>3</v>
+        <v>428</v>
       </c>
     </row>
     <row r="181">
@@ -2753,7 +2912,7 @@
         <v>237</v>
       </c>
       <c r="B181" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="182">
@@ -2761,7 +2920,7 @@
         <v>238</v>
       </c>
       <c r="B182" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="183">
@@ -2769,7 +2928,7 @@
         <v>239</v>
       </c>
       <c r="B183" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184">
@@ -2777,7 +2936,7 @@
         <v>240</v>
       </c>
       <c r="B184" t="s">
-        <v>241</v>
+        <v>429</v>
       </c>
     </row>
     <row r="185">
@@ -2785,7 +2944,7 @@
         <v>242</v>
       </c>
       <c r="B185" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186">
@@ -2801,7 +2960,7 @@
         <v>244</v>
       </c>
       <c r="B187" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
     </row>
     <row r="188">
@@ -2809,7 +2968,7 @@
         <v>245</v>
       </c>
       <c r="B188" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
     </row>
     <row r="189">
@@ -2817,7 +2976,7 @@
         <v>246</v>
       </c>
       <c r="B189" t="s">
-        <v>137</v>
+        <v>436</v>
       </c>
     </row>
     <row r="190">
@@ -2825,7 +2984,7 @@
         <v>247</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
     </row>
     <row r="191">
@@ -2833,7 +2992,7 @@
         <v>248</v>
       </c>
       <c r="B191" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192">
@@ -2841,7 +3000,7 @@
         <v>249</v>
       </c>
       <c r="B192" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="193">
@@ -2849,7 +3008,7 @@
         <v>250</v>
       </c>
       <c r="B193" t="s">
-        <v>241</v>
+        <v>429</v>
       </c>
     </row>
     <row r="194">
@@ -2865,7 +3024,7 @@
         <v>252</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196">
@@ -2873,7 +3032,7 @@
         <v>253</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197">
@@ -2881,7 +3040,7 @@
         <v>254</v>
       </c>
       <c r="B197" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
     </row>
     <row r="198">
@@ -2889,7 +3048,7 @@
         <v>255</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199">
@@ -2897,7 +3056,7 @@
         <v>256</v>
       </c>
       <c r="B199" t="s">
-        <v>257</v>
+        <v>418</v>
       </c>
     </row>
     <row r="200">
@@ -2905,7 +3064,7 @@
         <v>258</v>
       </c>
       <c r="B200" t="s">
-        <v>3</v>
+        <v>419</v>
       </c>
     </row>
     <row r="201">
@@ -2913,7 +3072,7 @@
         <v>259</v>
       </c>
       <c r="B201" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="202">
@@ -2921,7 +3080,7 @@
         <v>260</v>
       </c>
       <c r="B202" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="203">
@@ -2929,7 +3088,7 @@
         <v>261</v>
       </c>
       <c r="B203" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="204">
@@ -2937,7 +3096,7 @@
         <v>262</v>
       </c>
       <c r="B204" t="s">
-        <v>128</v>
+        <v>420</v>
       </c>
     </row>
     <row r="205">
@@ -2945,7 +3104,7 @@
         <v>263</v>
       </c>
       <c r="B205" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
@@ -2953,7 +3112,7 @@
         <v>264</v>
       </c>
       <c r="B206" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207">
@@ -2969,7 +3128,7 @@
         <v>266</v>
       </c>
       <c r="B208" t="s">
-        <v>267</v>
+        <v>421</v>
       </c>
     </row>
     <row r="209">
@@ -2977,7 +3136,7 @@
         <v>268</v>
       </c>
       <c r="B209" t="s">
-        <v>3</v>
+        <v>422</v>
       </c>
     </row>
     <row r="210">
@@ -2985,7 +3144,7 @@
         <v>269</v>
       </c>
       <c r="B210" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="211">
@@ -2993,7 +3152,7 @@
         <v>270</v>
       </c>
       <c r="B211" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="212">
@@ -3001,7 +3160,7 @@
         <v>271</v>
       </c>
       <c r="B212" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="213">
@@ -3009,7 +3168,7 @@
         <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>195</v>
+        <v>423</v>
       </c>
     </row>
     <row r="214">
@@ -3017,7 +3176,7 @@
         <v>273</v>
       </c>
       <c r="B214" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215">
@@ -3033,7 +3192,7 @@
         <v>275</v>
       </c>
       <c r="B216" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
     </row>
     <row r="217">
@@ -3041,7 +3200,7 @@
         <v>276</v>
       </c>
       <c r="B217" t="s">
-        <v>277</v>
+        <v>424</v>
       </c>
     </row>
     <row r="218">
@@ -3049,7 +3208,7 @@
         <v>278</v>
       </c>
       <c r="B218" t="s">
-        <v>3</v>
+        <v>425</v>
       </c>
     </row>
     <row r="219">
@@ -3057,7 +3216,7 @@
         <v>279</v>
       </c>
       <c r="B219" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="220">
@@ -3065,7 +3224,7 @@
         <v>280</v>
       </c>
       <c r="B220" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="221">
@@ -3073,7 +3232,7 @@
         <v>281</v>
       </c>
       <c r="B221" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="222">
@@ -3081,7 +3240,7 @@
         <v>282</v>
       </c>
       <c r="B222" t="s">
-        <v>219</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223">
@@ -3089,7 +3248,7 @@
         <v>283</v>
       </c>
       <c r="B223" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224">
@@ -3105,7 +3264,7 @@
         <v>285</v>
       </c>
       <c r="B225" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
     </row>
     <row r="226">
@@ -3113,7 +3272,7 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>59</v>
+        <v>427</v>
       </c>
     </row>
     <row r="227">
@@ -3121,7 +3280,7 @@
         <v>287</v>
       </c>
       <c r="B227" t="s">
-        <v>3</v>
+        <v>428</v>
       </c>
     </row>
     <row r="228">
@@ -3129,7 +3288,7 @@
         <v>288</v>
       </c>
       <c r="B228" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
     </row>
     <row r="229">
@@ -3137,7 +3296,7 @@
         <v>289</v>
       </c>
       <c r="B229" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="230">
@@ -3145,7 +3304,7 @@
         <v>290</v>
       </c>
       <c r="B230" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="231">
@@ -3153,7 +3312,7 @@
         <v>291</v>
       </c>
       <c r="B231" t="s">
-        <v>241</v>
+        <v>429</v>
       </c>
     </row>
     <row r="232">
@@ -3161,7 +3320,7 @@
         <v>292</v>
       </c>
       <c r="B232" t="s">
-        <v>197</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233">
@@ -3177,7 +3336,7 @@
         <v>294</v>
       </c>
       <c r="B234" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
     </row>
     <row r="235">
@@ -3193,7 +3352,7 @@
         <v>298</v>
       </c>
       <c r="B236" t="s">
-        <v>415</v>
+        <v>299</v>
       </c>
     </row>
     <row r="237">
@@ -3401,7 +3560,7 @@
         <v>332</v>
       </c>
       <c r="B262" t="s">
-        <v>333</v>
+        <v>415</v>
       </c>
     </row>
     <row r="263">
@@ -3433,7 +3592,7 @@
         <v>339</v>
       </c>
       <c r="B266" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="267">
@@ -3441,7 +3600,7 @@
         <v>341</v>
       </c>
       <c r="B267" t="s">
-        <v>342</v>
+        <v>416</v>
       </c>
     </row>
     <row r="268">
@@ -3730,6 +3889,238 @@
       </c>
       <c r="B303" t="s">
         <v>414</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>439</v>
+      </c>
+      <c r="B304" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>441</v>
+      </c>
+      <c r="B305" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>442</v>
+      </c>
+      <c r="B306" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>443</v>
+      </c>
+      <c r="B307" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>444</v>
+      </c>
+      <c r="B308" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>445</v>
+      </c>
+      <c r="B309" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>446</v>
+      </c>
+      <c r="B310" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>447</v>
+      </c>
+      <c r="B311" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>448</v>
+      </c>
+      <c r="B312" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>450</v>
+      </c>
+      <c r="B313" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>452</v>
+      </c>
+      <c r="B314" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>453</v>
+      </c>
+      <c r="B315" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>454</v>
+      </c>
+      <c r="B316" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>455</v>
+      </c>
+      <c r="B317" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>456</v>
+      </c>
+      <c r="B318" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>457</v>
+      </c>
+      <c r="B319" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>458</v>
+      </c>
+      <c r="B320" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>459</v>
+      </c>
+      <c r="B321" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>460</v>
+      </c>
+      <c r="B322" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>461</v>
+      </c>
+      <c r="B323" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>462</v>
+      </c>
+      <c r="B324" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>463</v>
+      </c>
+      <c r="B325" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>464</v>
+      </c>
+      <c r="B326" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>465</v>
+      </c>
+      <c r="B327" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>466</v>
+      </c>
+      <c r="B328" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>467</v>
+      </c>
+      <c r="B329" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>468</v>
+      </c>
+      <c r="B330" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>469</v>
+      </c>
+      <c r="B331" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>470</v>
+      </c>
+      <c r="B332" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="499">
   <si>
     <t>book_title_0</t>
   </si>
@@ -1425,6 +1425,90 @@
   </si>
   <si>
     <t>AddToWishlist_Price2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>miu</t>
+  </si>
+  <si>
+    <t>cpcojtgi871@hotmail.com</t>
+  </si>
+  <si>
+    <t>2025-06-15 16:24:19</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Thanh Hường</t>
+  </si>
+  <si>
+    <t>huong@gmail.com</t>
+  </si>
+  <si>
+    <t>send contact</t>
+  </si>
+  <si>
+    <t>send contact message</t>
+  </si>
+  <si>
+    <t>2025-06-15 16:22:46</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>2025-06-15 16:22:34</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2025-06-15 16:22:23</t>
+  </si>
+  <si>
+    <t>book_title</t>
+  </si>
+  <si>
+    <t>book_price_current</t>
+  </si>
+  <si>
+    <t>book_price_old</t>
+  </si>
+  <si>
+    <t>book_title1</t>
+  </si>
+  <si>
+    <t>book_price_current1</t>
+  </si>
+  <si>
+    <t>book_price_old1</t>
+  </si>
+  <si>
+    <t>#BOOK-49DTK83LUO</t>
+  </si>
+  <si>
+    <t>23:29 - 24/06/2025</t>
+  </si>
+  <si>
+    <t>#BOOK-2O6Y2ECPGA</t>
+  </si>
+  <si>
+    <t>23:32 - 24/06/2025</t>
+  </si>
+  <si>
+    <t>#BOOK-K4C03M8IG5</t>
+  </si>
+  <si>
+    <t>23:51 - 24/06/2025</t>
+  </si>
+  <si>
+    <t>#BOOK-810M0TG92T</t>
+  </si>
+  <si>
+    <t>23:54 - 24/06/2025</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:C332"/>
+  <dimension ref="A2:C338"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -2048,7 +2132,7 @@
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>440</v>
       </c>
     </row>
     <row r="74">
@@ -2056,7 +2140,7 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75">
@@ -2064,7 +2148,7 @@
         <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76">
@@ -2088,7 +2172,7 @@
         <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79">
@@ -2112,7 +2196,7 @@
         <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
@@ -2136,7 +2220,7 @@
         <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85">
@@ -3352,7 +3436,7 @@
         <v>298</v>
       </c>
       <c r="B236" t="s">
-        <v>299</v>
+        <v>415</v>
       </c>
     </row>
     <row r="237">
@@ -3624,7 +3708,7 @@
         <v>348</v>
       </c>
       <c r="B270" t="s">
-        <v>367</v>
+        <v>495</v>
       </c>
     </row>
     <row r="271">
@@ -3632,7 +3716,7 @@
         <v>350</v>
       </c>
       <c r="B271" t="s">
-        <v>368</v>
+        <v>496</v>
       </c>
     </row>
     <row r="272">
@@ -3664,7 +3748,7 @@
         <v>356</v>
       </c>
       <c r="B275" t="s">
-        <v>369</v>
+        <v>497</v>
       </c>
     </row>
     <row r="276">
@@ -3672,7 +3756,7 @@
         <v>358</v>
       </c>
       <c r="B276" t="s">
-        <v>370</v>
+        <v>498</v>
       </c>
     </row>
     <row r="277">
@@ -3704,7 +3788,7 @@
         <v>371</v>
       </c>
       <c r="B280" t="s">
-        <v>372</v>
+        <v>471</v>
       </c>
     </row>
     <row r="281">
@@ -3712,7 +3796,7 @@
         <v>373</v>
       </c>
       <c r="B281" t="s">
-        <v>374</v>
+        <v>472</v>
       </c>
     </row>
     <row r="282">
@@ -3720,7 +3804,7 @@
         <v>375</v>
       </c>
       <c r="B282" t="s">
-        <v>376</v>
+        <v>473</v>
       </c>
     </row>
     <row r="283">
@@ -3744,7 +3828,7 @@
         <v>379</v>
       </c>
       <c r="B285" t="s">
-        <v>380</v>
+        <v>474</v>
       </c>
     </row>
     <row r="286">
@@ -3752,7 +3836,7 @@
         <v>381</v>
       </c>
       <c r="B286" t="s">
-        <v>382</v>
+        <v>475</v>
       </c>
     </row>
     <row r="287">
@@ -3760,7 +3844,7 @@
         <v>383</v>
       </c>
       <c r="B287" t="s">
-        <v>384</v>
+        <v>476</v>
       </c>
     </row>
     <row r="288">
@@ -3768,7 +3852,7 @@
         <v>385</v>
       </c>
       <c r="B288" t="s">
-        <v>386</v>
+        <v>477</v>
       </c>
     </row>
     <row r="289">
@@ -3776,7 +3860,7 @@
         <v>387</v>
       </c>
       <c r="B289" t="s">
-        <v>388</v>
+        <v>478</v>
       </c>
     </row>
     <row r="290">
@@ -3784,7 +3868,7 @@
         <v>389</v>
       </c>
       <c r="B290" t="s">
-        <v>390</v>
+        <v>479</v>
       </c>
     </row>
     <row r="291">
@@ -3792,7 +3876,7 @@
         <v>391</v>
       </c>
       <c r="B291" t="s">
-        <v>392</v>
+        <v>480</v>
       </c>
     </row>
     <row r="292">
@@ -3800,7 +3884,7 @@
         <v>393</v>
       </c>
       <c r="B292" t="s">
-        <v>394</v>
+        <v>481</v>
       </c>
     </row>
     <row r="293">
@@ -3808,7 +3892,7 @@
         <v>395</v>
       </c>
       <c r="B293" t="s">
-        <v>396</v>
+        <v>476</v>
       </c>
     </row>
     <row r="294">
@@ -3816,7 +3900,7 @@
         <v>397</v>
       </c>
       <c r="B294" t="s">
-        <v>398</v>
+        <v>477</v>
       </c>
     </row>
     <row r="295">
@@ -3824,7 +3908,7 @@
         <v>399</v>
       </c>
       <c r="B295" t="s">
-        <v>400</v>
+        <v>478</v>
       </c>
     </row>
     <row r="296">
@@ -3832,7 +3916,7 @@
         <v>401</v>
       </c>
       <c r="B296" t="s">
-        <v>402</v>
+        <v>479</v>
       </c>
     </row>
     <row r="297">
@@ -3840,7 +3924,7 @@
         <v>403</v>
       </c>
       <c r="B297" t="s">
-        <v>404</v>
+        <v>482</v>
       </c>
     </row>
     <row r="298">
@@ -3848,7 +3932,7 @@
         <v>405</v>
       </c>
       <c r="B298" t="s">
-        <v>406</v>
+        <v>483</v>
       </c>
     </row>
     <row r="299">
@@ -3856,7 +3940,7 @@
         <v>407</v>
       </c>
       <c r="B299" t="s">
-        <v>396</v>
+        <v>476</v>
       </c>
     </row>
     <row r="300">
@@ -3864,7 +3948,7 @@
         <v>408</v>
       </c>
       <c r="B300" t="s">
-        <v>398</v>
+        <v>477</v>
       </c>
     </row>
     <row r="301">
@@ -3872,7 +3956,7 @@
         <v>409</v>
       </c>
       <c r="B301" t="s">
-        <v>410</v>
+        <v>478</v>
       </c>
     </row>
     <row r="302">
@@ -3880,7 +3964,7 @@
         <v>411</v>
       </c>
       <c r="B302" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
     </row>
     <row r="303">
@@ -3888,7 +3972,7 @@
         <v>413</v>
       </c>
       <c r="B303" t="s">
-        <v>414</v>
+        <v>484</v>
       </c>
     </row>
     <row r="304">
@@ -4121,6 +4205,54 @@
       </c>
       <c r="B332" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>485</v>
+      </c>
+      <c r="B333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>486</v>
+      </c>
+      <c r="B334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>487</v>
+      </c>
+      <c r="B335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>488</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>489</v>
+      </c>
+      <c r="B337" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>490</v>
+      </c>
+      <c r="B338" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="560">
   <si>
     <t>book_title_0</t>
   </si>
@@ -1509,6 +1509,189 @@
   </si>
   <si>
     <t>23:54 - 24/06/2025</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2025-06-24 23:40:11</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2025-06-24 23:39:33</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2025-06-24 23:38:06</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2025-06-24 23:37:44</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>BOOK-810M0TG92T</t>
+  </si>
+  <si>
+    <t>2025-06-24 23:54:28</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>BOOK-K4C03M8IG5</t>
+  </si>
+  <si>
+    <t>2025-06-24 23:51:10</t>
+  </si>
+  <si>
+    <t>CANCELLED</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>BOOK-2O6Y2ECPGA</t>
+  </si>
+  <si>
+    <t>2025-06-24 23:32:32</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>BOOK-49DTK83LUO</t>
+  </si>
+  <si>
+    <t>2025-06-24 23:29:40</t>
+  </si>
+  <si>
+    <t>#BOOK-RWW6355KX6</t>
+  </si>
+  <si>
+    <t>16:56 - 27/06/2025</t>
+  </si>
+  <si>
+    <t>#BOOK-H05PUBBFLP</t>
+  </si>
+  <si>
+    <t>16:57 - 27/06/2025</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2025-06-27 17:05:06</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2025-06-27 17:04:53</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2025-06-27 17:04:41</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2025-06-27 17:04:27</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>BOOK-H05PUBBFLP</t>
+  </si>
+  <si>
+    <t>2025-06-27 16:57:10</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>BOOK-RWW6355KX6</t>
+  </si>
+  <si>
+    <t>2025-06-27 16:56:19</t>
+  </si>
+  <si>
+    <t>BOOK-A558ECPHMW</t>
+  </si>
+  <si>
+    <t>2025-06-08 22:12:59</t>
+  </si>
+  <si>
+    <t>#BOOK-6V84PGW51F</t>
+  </si>
+  <si>
+    <t>22:41 - 27/06/2025</t>
+  </si>
+  <si>
+    <t>#BOOK-9PQHGDMIZI</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>2025-06-27 22:50:22</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2025-06-27 22:50:09</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2025-06-27 22:49:55</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2025-06-27 22:49:42</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>BOOK-9PQHGDMIZI</t>
+  </si>
+  <si>
+    <t>2025-06-27 22:41:59</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>BOOK-6V84PGW51F</t>
+  </si>
+  <si>
+    <t>2025-06-27 22:41:06</t>
+  </si>
+  <si>
+    <t>#BOOK-BTLC9B8JBA</t>
+  </si>
+  <si>
+    <t>00:28 - 28/06/2025</t>
+  </si>
+  <si>
+    <t>#BOOK-LWB5XKNGWI</t>
   </si>
 </sst>
 </file>
@@ -2132,7 +2315,7 @@
         <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>440</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74">
@@ -2140,7 +2323,7 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75">
@@ -2148,7 +2331,7 @@
         <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76">
@@ -2172,7 +2355,7 @@
         <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
@@ -2196,7 +2379,7 @@
         <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="82">
@@ -2220,7 +2403,7 @@
         <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85">
@@ -2228,7 +2411,7 @@
         <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>440</v>
+        <v>118</v>
       </c>
     </row>
     <row r="86">
@@ -2452,7 +2635,7 @@
         <v>161</v>
       </c>
       <c r="B113" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="114">
@@ -2460,7 +2643,7 @@
         <v>162</v>
       </c>
       <c r="B114" t="s">
-        <v>431</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115">
@@ -2468,7 +2651,7 @@
         <v>163</v>
       </c>
       <c r="B115" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
     </row>
     <row r="116">
@@ -2476,7 +2659,7 @@
         <v>164</v>
       </c>
       <c r="B116" t="s">
-        <v>432</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117">
@@ -2484,7 +2667,7 @@
         <v>165</v>
       </c>
       <c r="B117" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="118">
@@ -2492,7 +2675,7 @@
         <v>166</v>
       </c>
       <c r="B118" t="s">
-        <v>434</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119">
@@ -2500,7 +2683,7 @@
         <v>167</v>
       </c>
       <c r="B119" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="120">
@@ -2508,7 +2691,7 @@
         <v>168</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121">
@@ -2516,7 +2699,7 @@
         <v>169</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>86</v>
       </c>
     </row>
     <row r="122">
@@ -2524,7 +2707,7 @@
         <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>212</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123">
@@ -2532,7 +2715,7 @@
         <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>322</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124">
@@ -2540,7 +2723,7 @@
         <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>324</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
@@ -2548,7 +2731,7 @@
         <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126">
@@ -2556,7 +2739,7 @@
         <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="127">
@@ -2572,7 +2755,7 @@
         <v>176</v>
       </c>
       <c r="B128" t="s">
-        <v>328</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
@@ -2580,7 +2763,7 @@
         <v>177</v>
       </c>
       <c r="B129" t="s">
-        <v>328</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130">
@@ -2596,7 +2779,7 @@
         <v>179</v>
       </c>
       <c r="B131" t="s">
-        <v>435</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2867,7 @@
         <v>190</v>
       </c>
       <c r="B142" t="s">
-        <v>422</v>
+        <v>555</v>
       </c>
     </row>
     <row r="143">
@@ -2716,7 +2899,7 @@
         <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>423</v>
+        <v>556</v>
       </c>
     </row>
     <row r="147">
@@ -2732,7 +2915,7 @@
         <v>198</v>
       </c>
       <c r="B148" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="149">
@@ -2788,7 +2971,7 @@
         <v>207</v>
       </c>
       <c r="B155" t="s">
-        <v>423</v>
+        <v>556</v>
       </c>
     </row>
     <row r="156">
@@ -2836,7 +3019,7 @@
         <v>214</v>
       </c>
       <c r="B161" t="s">
-        <v>425</v>
+        <v>533</v>
       </c>
     </row>
     <row r="162">
@@ -2868,7 +3051,7 @@
         <v>218</v>
       </c>
       <c r="B165" t="s">
-        <v>426</v>
+        <v>534</v>
       </c>
     </row>
     <row r="166">
@@ -2892,7 +3075,7 @@
         <v>223</v>
       </c>
       <c r="B168" t="s">
-        <v>354</v>
+        <v>134</v>
       </c>
     </row>
     <row r="169">
@@ -2940,7 +3123,7 @@
         <v>230</v>
       </c>
       <c r="B174" t="s">
-        <v>426</v>
+        <v>534</v>
       </c>
     </row>
     <row r="175">
@@ -2988,7 +3171,7 @@
         <v>236</v>
       </c>
       <c r="B180" t="s">
-        <v>428</v>
+        <v>536</v>
       </c>
     </row>
     <row r="181">
@@ -3020,7 +3203,7 @@
         <v>240</v>
       </c>
       <c r="B184" t="s">
-        <v>429</v>
+        <v>537</v>
       </c>
     </row>
     <row r="185">
@@ -3092,7 +3275,7 @@
         <v>250</v>
       </c>
       <c r="B193" t="s">
-        <v>429</v>
+        <v>537</v>
       </c>
     </row>
     <row r="194">
@@ -3140,7 +3323,7 @@
         <v>256</v>
       </c>
       <c r="B199" t="s">
-        <v>418</v>
+        <v>551</v>
       </c>
     </row>
     <row r="200">
@@ -3148,7 +3331,7 @@
         <v>258</v>
       </c>
       <c r="B200" t="s">
-        <v>419</v>
+        <v>552</v>
       </c>
     </row>
     <row r="201">
@@ -3180,7 +3363,7 @@
         <v>262</v>
       </c>
       <c r="B204" t="s">
-        <v>420</v>
+        <v>553</v>
       </c>
     </row>
     <row r="205">
@@ -3196,7 +3379,7 @@
         <v>264</v>
       </c>
       <c r="B206" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207">
@@ -3212,7 +3395,7 @@
         <v>266</v>
       </c>
       <c r="B208" t="s">
-        <v>421</v>
+        <v>554</v>
       </c>
     </row>
     <row r="209">
@@ -3220,7 +3403,7 @@
         <v>268</v>
       </c>
       <c r="B209" t="s">
-        <v>422</v>
+        <v>555</v>
       </c>
     </row>
     <row r="210">
@@ -3252,7 +3435,7 @@
         <v>272</v>
       </c>
       <c r="B213" t="s">
-        <v>423</v>
+        <v>556</v>
       </c>
     </row>
     <row r="214">
@@ -3268,7 +3451,7 @@
         <v>274</v>
       </c>
       <c r="B215" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="216">
@@ -3284,7 +3467,7 @@
         <v>276</v>
       </c>
       <c r="B217" t="s">
-        <v>424</v>
+        <v>532</v>
       </c>
     </row>
     <row r="218">
@@ -3292,7 +3475,7 @@
         <v>278</v>
       </c>
       <c r="B218" t="s">
-        <v>425</v>
+        <v>533</v>
       </c>
     </row>
     <row r="219">
@@ -3324,7 +3507,7 @@
         <v>282</v>
       </c>
       <c r="B222" t="s">
-        <v>426</v>
+        <v>534</v>
       </c>
     </row>
     <row r="223">
@@ -3348,7 +3531,7 @@
         <v>285</v>
       </c>
       <c r="B225" t="s">
-        <v>354</v>
+        <v>134</v>
       </c>
     </row>
     <row r="226">
@@ -3356,7 +3539,7 @@
         <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>427</v>
+        <v>535</v>
       </c>
     </row>
     <row r="227">
@@ -3364,7 +3547,7 @@
         <v>287</v>
       </c>
       <c r="B227" t="s">
-        <v>428</v>
+        <v>536</v>
       </c>
     </row>
     <row r="228">
@@ -3396,7 +3579,7 @@
         <v>291</v>
       </c>
       <c r="B231" t="s">
-        <v>429</v>
+        <v>537</v>
       </c>
     </row>
     <row r="232">
@@ -3708,7 +3891,7 @@
         <v>348</v>
       </c>
       <c r="B270" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
     </row>
     <row r="271">
@@ -3716,7 +3899,7 @@
         <v>350</v>
       </c>
       <c r="B271" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
     </row>
     <row r="272">
@@ -3748,7 +3931,7 @@
         <v>356</v>
       </c>
       <c r="B275" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
     </row>
     <row r="276">
@@ -3756,7 +3939,7 @@
         <v>358</v>
       </c>
       <c r="B276" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
     </row>
     <row r="277">
@@ -3788,7 +3971,7 @@
         <v>371</v>
       </c>
       <c r="B280" t="s">
-        <v>471</v>
+        <v>543</v>
       </c>
     </row>
     <row r="281">
@@ -3796,7 +3979,7 @@
         <v>373</v>
       </c>
       <c r="B281" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="282">
@@ -3804,7 +3987,7 @@
         <v>375</v>
       </c>
       <c r="B282" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="283">
@@ -3812,7 +3995,7 @@
         <v>377</v>
       </c>
       <c r="B283" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
     </row>
     <row r="284">
@@ -3820,7 +4003,7 @@
         <v>378</v>
       </c>
       <c r="B284" t="s">
-        <v>374</v>
+        <v>479</v>
       </c>
     </row>
     <row r="285">
@@ -3828,7 +4011,7 @@
         <v>379</v>
       </c>
       <c r="B285" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
     </row>
     <row r="286">
@@ -3836,7 +4019,7 @@
         <v>381</v>
       </c>
       <c r="B286" t="s">
-        <v>475</v>
+        <v>545</v>
       </c>
     </row>
     <row r="287">
@@ -3876,7 +4059,7 @@
         <v>391</v>
       </c>
       <c r="B291" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
     </row>
     <row r="292">
@@ -3884,7 +4067,7 @@
         <v>393</v>
       </c>
       <c r="B292" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
     </row>
     <row r="293">
@@ -3924,7 +4107,7 @@
         <v>403</v>
       </c>
       <c r="B297" t="s">
-        <v>482</v>
+        <v>548</v>
       </c>
     </row>
     <row r="298">
@@ -3932,7 +4115,7 @@
         <v>405</v>
       </c>
       <c r="B298" t="s">
-        <v>483</v>
+        <v>549</v>
       </c>
     </row>
     <row r="299">
@@ -3972,7 +4155,7 @@
         <v>413</v>
       </c>
       <c r="B303" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
     </row>
     <row r="304">
